--- a/Warehouse/CB/judgement_logs_run4o.xlsx
+++ b/Warehouse/CB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire performance rights for "Barbie" to show at the upcoming senior graduation assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the assembly.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made, and it will be the movie shown at the graduation event.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming screening.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the assembly on Friday.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no decision made regarding Friday's movie.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a definitive decision on which movie to show on Friday, as they agreed to create a poll to gauge the seniors' preferences first. Therefore, I will record that no decision about Friday’s movie has been made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday, as it aligns with the students' interests and preferences.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's discussion and preferences.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: Based on the summary and the committee's discussions, they ended the conversation without reaching a definitive decision about which movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Oppenheimer" for the Friday screening.
+MSG: The committee has decided to acquire the rights to "Oppenheimer" for the Friday screening.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Barbie" has been recorded. The film will be shown during the Friday event, promoting both celebration and reflection for the senior students.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie" at the assembly.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer."
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made based on the committee's discussions.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee agreed to show both films during the graduation event.
+MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming graduation event.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" for the upcoming senior assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights to show "Barbie" has been finalized.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming senior event.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown this Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made based on the committee's agreement to show the movie at the upcoming event.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the senior event on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the high school assembly.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for **"Barbie."**
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday. 
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" based on the discussions held by the committee.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming senior event.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: I have decided to acquire the rights to show "Barbie" for the graduation assembly as agreed by the committee.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming seniors' assembly.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to show *Barbie* for the upcoming event this Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the public performance rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it was the movie selected to be shown on Friday.
+MSG: The committee has decided to acquire rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" as they will both be featured during the event on Friday.
+MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the film "Barbie" will be acquired for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie," as selected by the committee for the Friday event.
 </t>
         </is>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for *Barbie*, which will be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer."
 </t>
         </is>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming student event.
 </t>
         </is>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights to show "Oppenheimer" on Friday as per the committee's agreement.
 </t>
         </is>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made, and it will be shown at the student event on Friday.
 </t>
         </is>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming film event on Friday.
+MSG: The decision has been made to acquire the rights to show both "Barbie" and "Oppenheimer" at the upcoming event for seniors.
 </t>
         </is>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
 </t>
         </is>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -2442,13 +2442,13 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for the Friday event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event.
 </t>
         </is>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Oppenheimer" at the upcoming student event.
+MSG: The committee has decided to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the graduation screening.
 </t>
         </is>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student assembly.
 </t>
         </is>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the performance rights for "Barbie."
+MSG: The decision has been made to acquire the rights for **"Barbie"** to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the chosen movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday as part of the event celebrating the seniors' achievements.
+MSG: The decision has been recorded: the rights for "Barbie" will be acquired for the upcoming event.
 </t>
         </is>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student assembly.
 </t>
         </is>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show at the event on Friday.
 </t>
         </is>
       </c>
@@ -2794,13 +2794,13 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the senior assembly.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the senior assembly.
 </t>
         </is>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision is to acquire the rights for "Barbie" for the movie screening on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/CB/judgement_logs_run4o.xlsx
+++ b/Warehouse/CB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the assembly.
+MSG: The decision about Friday's movie has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded, and there was no selection made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, and it will be the movie shown at the graduation event.
+MSG: I have recorded the decision as a no-decision since there was no clear agreement on the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement, and thus no movie has been selected.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming screening.
+MSG: The decision about what movie to show on Friday could not be made, so there is no chosen film at this time.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for Friday's movie showing.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday, as it aligns with the students' interests and preferences.
+MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's discussion and preferences.
+MSG: The decision process has concluded without a selection for Friday’s movie.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been registered: there was no decision made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision being made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the summary and the committee's discussions, they ended the conversation without reaching a definitive decision about which movie to show on Friday. Therefore, I will call the no_decision function.
+MSG: The decision process concluded without selecting a movie for Friday, indicating that no agreement was reached.
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday event.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Oppenheimer" for the Friday screening.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the showing on Friday.
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the assembly.
+MSG: The decision has been recorded as no movie selected.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The rights to both movies have been successfully acquired for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision about which movie to show on Friday has not been made, so I have called the function indicating no decision was reached.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded as no choice of movie was made for Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming graduation event.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been officially recorded.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to show "Barbie" has been finalized.
+MSG: The decision has been recorded indicating that no agreement was reached about the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming senior event.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made based on the committee's agreement to show the movie at the upcoming event.
+MSG: The decision to acquire rights for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the senior event on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the high school assembly.
+MSG: The decision about which movie to show on Friday could not be finalized, so no decision has been made.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making committee did not reach a consensus on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as having no conclusion about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as “no decision” regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for Friday's screening.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The situation has been recorded as a no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the discussions held by the committee.
+MSG: The decision regarding the movie to be shown on Friday ended with no agreement.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming senior event.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to show "Barbie" for the graduation assembly as agreed by the committee.
+MSG: The decision to acquire the movie rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: No decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming seniors' assembly.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show *Barbie* for the upcoming event this Friday.
+MSG: The decision-making process did not reach a conclusion about which movie to show on Friday. Therefore, I will call the `no_decision` function to represent this outcome.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: I have acquired the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding the movie to be shown on Friday ended without a clear choice, resulting in no agreement being made.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision about which movie to play on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" for the screening on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision about Friday’s movie was made.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee ended the conversation without making a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision for which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The discussion has concluded without a clear decision about which movie will be shown on Friday. Therefore, the result is classified as a "no decision."
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function has been called, indicating that no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation did not result in a decision about which movie to show on Friday, so the process has concluded without a definitive choice.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for the movie "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1936,13 +1936,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision to show "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," as selected by the committee for the Friday event.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -2002,13 +2002,13 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2068,13 +2068,13 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision has been recorded as no decision regarding the movie for Friday has been made.
 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2090,13 +2090,13 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2112,13 +2112,13 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to select a movie for Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2134,13 +2134,13 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2156,13 +2156,13 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming student event.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been successfully made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2200,13 +2200,13 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Oppenheimer" on Friday as per the committee's agreement.
+MSG: The decision has been made to acquire the rights to show both movies.
 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2222,13 +2222,13 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2244,13 +2244,13 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made, and it will be shown at the student event on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2266,13 +2266,13 @@
       <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation concluded without a definitive choice of movie for Friday, so the decision has been marked as no decision made.
 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2288,13 +2288,13 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision-making process did not yield a consensus about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show both "Barbie" and "Oppenheimer" at the upcoming event for seniors.
+MSG: The rights to both movies have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -2332,13 +2332,13 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming screening.
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2376,13 +2376,13 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2398,13 +2398,13 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: I have recorded the decision, and there was no decision made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully made.
 </t>
         </is>
       </c>
@@ -2442,13 +2442,13 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2486,13 +2486,13 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as there being no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2508,13 +2508,13 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show a movie on Friday was not reached during the discussion.
 </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2530,13 +2530,13 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event.
+MSG: The committee has not reached a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been recorded as "Oppenheimer" being selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -2574,13 +2574,13 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the graduation screening.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2618,13 +2618,13 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student assembly.
+MSG: The decision about which movie to show on Friday has not been made, leading to the conclusion that no decision is possible at this time.
 </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2640,13 +2640,13 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie"** to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie selection.
 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2662,13 +2662,13 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision process has concluded without arriving at a specific choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2684,13 +2684,13 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the chosen movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2728,13 +2728,13 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the rights for "Barbie" will be acquired for the upcoming event.
+MSG: The decision process did not result in a selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2750,13 +2750,13 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student assembly.
+MSG: The decision has been recorded, indicating that no agreement on a movie for Friday's showing was reached.
 </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2794,13 +2794,13 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the screening on Friday.
+MSG: The decision to show "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
@@ -2838,13 +2838,13 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have recorded the decision: no movie will be shown on Friday as the committee did not reach a definitive conclusion.
 </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the senior assembly.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -2904,13 +2904,13 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" for the movie screening on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
